--- a/report/payroll.xlsx
+++ b/report/payroll.xlsx
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +416,36 @@
       <c r="D1" t="str">
         <v>3</v>
       </c>
+      <c r="E1" t="str">
+        <v>4</v>
+      </c>
+      <c r="F1" t="str">
+        <v>5</v>
+      </c>
+      <c r="G1" t="str">
+        <v>6</v>
+      </c>
+      <c r="H1" t="str">
+        <v>7</v>
+      </c>
+      <c r="I1" t="str">
+        <v>8</v>
+      </c>
+      <c r="J1" t="str">
+        <v>9</v>
+      </c>
+      <c r="K1" t="str">
+        <v>10</v>
+      </c>
+      <c r="L1" t="str">
+        <v>11</v>
+      </c>
+      <c r="M1" t="str">
+        <v>12</v>
+      </c>
+      <c r="N1" t="str">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,43 +455,89 @@
         <v>job_title</v>
       </c>
       <c r="C2" t="str">
-        <v>basic_salary</v>
+        <v>email</v>
       </c>
       <c r="D2" t="str">
+        <v>date</v>
+      </c>
+      <c r="E2" t="str">
+        <v>basic_wage</v>
+      </c>
+      <c r="F2" t="str">
         <v>allowance</v>
+      </c>
+      <c r="G2" t="str">
+        <v>bonus</v>
+      </c>
+      <c r="H2" t="str">
+        <v>income_tax</v>
+      </c>
+      <c r="I2" t="str">
+        <v>bonus_tax</v>
+      </c>
+      <c r="J2" t="str">
+        <v>teir_one</v>
+      </c>
+      <c r="K2" t="str">
+        <v>teir_two</v>
+      </c>
+      <c r="L2" t="str">
+        <v>loan_deduction</v>
+      </c>
+      <c r="M2" t="str">
+        <v>total_deduction</v>
+      </c>
+      <c r="N2" t="str">
+        <v>net_salary</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>dan</v>
+        <v>Ellis Justice</v>
       </c>
       <c r="B3" t="str">
         <v>level 1</v>
       </c>
-      <c r="C3">
-        <v>1100</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>fred</v>
-      </c>
-      <c r="B4" t="str">
-        <v>level 2</v>
-      </c>
-      <c r="C4">
-        <v>1100</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
+      <c r="C3" t="str">
+        <v>e@gmail.com</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43585.999398148146</v>
+      </c>
+      <c r="E3">
+        <v>1500</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>73.625</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>195</v>
+      </c>
+      <c r="K3">
+        <v>82.5</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>356.125</v>
+      </c>
+      <c r="N3">
+        <v>1393.875</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N3"/>
   </ignoredErrors>
 </worksheet>
 </file>